--- a/xlsx/外债_intext.xlsx
+++ b/xlsx/外债_intext.xlsx
@@ -29,7 +29,7 @@
     <t>债权人</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_外债</t>
+    <t>政策_政策_货币政策_外债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%8A%A1</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E5%8B%99%E4%BA%BA</t>
   </si>
   <si>
-    <t>債務人</t>
+    <t>债务人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%A4%96%E5%8C%AF%E5%84%B2%E5%82%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國外匯儲備列表</t>
+    <t>各国外汇储备列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
